--- a/src/main/resources/CompilerDictionary/LocatorDictionary/BecomePartnerPage.xlsx
+++ b/src/main/resources/CompilerDictionary/LocatorDictionary/BecomePartnerPage.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Sno</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>BecomePartnerPage_BrandLogo_ImageLink</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Privacy Policy')]/parent::span/parent::div</t>
+  </si>
+  <si>
+    <t>BecomePartnerPage_Modal_Label_ViewPrivacyPolicy</t>
   </si>
 </sst>
 </file>
@@ -588,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1006,6 +1012,17 @@
       </c>
       <c r="C37" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CompilerDictionary/LocatorDictionary/BecomePartnerPage.xlsx
+++ b/src/main/resources/CompilerDictionary/LocatorDictionary/BecomePartnerPage.xlsx
@@ -135,12 +135,6 @@
     <t>#Partner_Interest__c</t>
   </si>
   <si>
-    <t>#mktoCheckbox_139660_0</t>
-  </si>
-  <si>
-    <t>#LblmktoCheckbox_139660_0</t>
-  </si>
-  <si>
     <t>button.mktoButton[type='submit']</t>
   </si>
   <si>
@@ -247,6 +241,12 @@
   </si>
   <si>
     <t>BecomePartnerPage_Modal_Label_ViewPrivacyPolicy</t>
+  </si>
+  <si>
+    <t>#mktoCheckbox_144792_0</t>
+  </si>
+  <si>
+    <t>#LblmktoCheckbox_144792_0</t>
   </si>
 </sst>
 </file>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -813,7 +813,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -824,7 +824,7 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -832,10 +832,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -843,10 +843,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -854,10 +854,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -865,10 +865,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -876,10 +876,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -887,10 +887,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -898,10 +898,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -909,10 +909,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -920,10 +920,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -931,10 +931,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -942,10 +942,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -953,10 +953,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -964,10 +964,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -975,10 +975,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -986,10 +986,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -997,10 +997,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -1008,10 +1008,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1019,10 +1019,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/CompilerDictionary/LocatorDictionary/BecomePartnerPage.xlsx
+++ b/src/main/resources/CompilerDictionary/LocatorDictionary/BecomePartnerPage.xlsx
@@ -135,12 +135,6 @@
     <t>#Partner_Interest__c</t>
   </si>
   <si>
-    <t>#mktoCheckbox_139660_0</t>
-  </si>
-  <si>
-    <t>#LblmktoCheckbox_139660_0</t>
-  </si>
-  <si>
     <t>button.mktoButton[type='submit']</t>
   </si>
   <si>
@@ -243,10 +237,16 @@
     <t>BecomePartnerPage_BrandLogo_ImageLink</t>
   </si>
   <si>
+    <t>BecomePartnerPage_Modal_Label_ViewPrivacyPolicy</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Privacy Policy')]/parent::span/ancestor::div/input</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Privacy Policy')]/parent::span/ancestor::label</t>
+  </si>
+  <si>
     <t>//a[contains(text(),'Privacy Policy')]/parent::span/parent::div</t>
-  </si>
-  <si>
-    <t>BecomePartnerPage_Modal_Label_ViewPrivacyPolicy</t>
   </si>
 </sst>
 </file>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -634,10 +634,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -645,10 +645,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -656,10 +656,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -667,10 +667,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -689,10 +689,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -700,10 +700,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -711,10 +711,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -722,10 +722,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -733,10 +733,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -744,10 +744,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -755,10 +755,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -766,10 +766,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -777,10 +777,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -788,10 +788,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -799,10 +799,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -810,10 +810,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -821,10 +821,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -832,10 +832,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -843,10 +843,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -854,10 +854,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -865,10 +865,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -876,10 +876,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -887,10 +887,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -898,10 +898,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -909,10 +909,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -920,10 +920,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -931,10 +931,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -942,10 +942,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -953,10 +953,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
@@ -964,10 +964,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
@@ -975,10 +975,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
@@ -986,10 +986,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
@@ -997,10 +997,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
@@ -1008,10 +1008,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
@@ -1019,13 +1019,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:C38">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/main/resources/CompilerDictionary/LocatorDictionary/BecomePartnerPage.xlsx
+++ b/src/main/resources/CompilerDictionary/LocatorDictionary/BecomePartnerPage.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhinav\IdeaProjects\CouchBase\src\main\resources\CompilerDictionary\LocatorDictionary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F580445A-6E24-476D-AA7B-8D77BFC76877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="140" windowWidth="19140" windowHeight="7090"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BecomePartnerPage" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Sno</t>
   </si>
@@ -247,12 +253,18 @@
   </si>
   <si>
     <t>//a[contains(text(),'Privacy Policy')]/parent::span/parent::div</t>
+  </si>
+  <si>
+    <t>BecomePartnerPage_Modal_CheckBox_CouchbaseMasterPartnerAgreement</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Couchbase Master Partner Agreement')]/parent::span/ancestor::div/input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -303,14 +315,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -348,7 +363,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -420,7 +435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -593,11 +608,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1025,8 +1040,19 @@
         <v>67</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="B2:C38">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C38">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1034,7 +1060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1046,7 +1072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
